--- a/dados_meta_ads.xlsx
+++ b/dados_meta_ads.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Amaro\Desktop\Resolve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Amaro\Desktop\Resolve\resolve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B600CF-0C9D-472C-BA15-01D557A9A96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D466E2D-4A5C-4210-87DD-DE1134EF8824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
   <si>
     <t>Início dos relatórios</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Custo por resultados</t>
   </si>
   <si>
-    <t>Tipo de orçamento do conjunto de anúncios</t>
-  </si>
-  <si>
     <t>Valor usado (BRL)</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
     <t>CPC (todos) (BRL)</t>
   </si>
   <si>
-    <t>actions:omni_landing_page_view</t>
+    <t>Visualizações da página de destino</t>
+  </si>
+  <si>
+    <t>Custo por visualização da página de destino (BRL)</t>
   </si>
   <si>
     <t>2025-08-12</t>
   </si>
   <si>
-    <t>2025-10-08</t>
+    <t>2025-10-21</t>
   </si>
   <si>
     <t>AD 01</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>AD 09</t>
-  </si>
-  <si>
-    <t>Diário</t>
   </si>
 </sst>
 </file>
@@ -152,10 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,14 +458,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:S36"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="27.7109375" customWidth="1"/>
-    <col min="19" max="19" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="19" max="19" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -532,11 +528,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45881</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45938</v>
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -547,35 +543,38 @@
       <c r="G2">
         <v>1.0208330000000001</v>
       </c>
+      <c r="I2">
+        <v>1.49</v>
+      </c>
       <c r="J2">
+        <v>98</v>
+      </c>
+      <c r="K2">
+        <v>15.204082</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>1.49</v>
       </c>
-      <c r="K2">
-        <v>98</v>
-      </c>
-      <c r="L2">
-        <v>15.204082</v>
-      </c>
-      <c r="M2">
+      <c r="N2">
+        <v>1.020408</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="P2">
+        <v>1.020408</v>
+      </c>
+      <c r="Q2">
         <v>1.49</v>
       </c>
-      <c r="O2">
-        <v>1.020408</v>
-      </c>
-      <c r="P2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>1.020408</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
         <v>1.49</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -594,35 +593,38 @@
       <c r="G3">
         <v>1.179592</v>
       </c>
+      <c r="I3">
+        <v>3.08</v>
+      </c>
       <c r="J3">
+        <v>289</v>
+      </c>
+      <c r="K3">
+        <v>10.657439</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="N3">
+        <v>1.7301040000000001</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>2.0761250000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.51333300000000004</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>3.08</v>
-      </c>
-      <c r="K3">
-        <v>289</v>
-      </c>
-      <c r="L3">
-        <v>10.657439</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="O3">
-        <v>1.7301040000000001</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3">
-        <v>2.0761250000000002</v>
-      </c>
-      <c r="R3">
-        <v>0.51333300000000004</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -641,31 +643,31 @@
       <c r="G4">
         <v>1.1287879999999999</v>
       </c>
+      <c r="I4">
+        <v>2.39</v>
+      </c>
       <c r="J4">
-        <v>2.39</v>
+        <v>149</v>
       </c>
       <c r="K4">
-        <v>149</v>
+        <v>16.040268000000001</v>
       </c>
       <c r="L4">
-        <v>16.040268000000001</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="N4">
-        <v>1.1950000000000001</v>
+        <v>1.342282</v>
       </c>
       <c r="O4">
-        <v>1.342282</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>3.3557049999999999</v>
       </c>
       <c r="Q4">
-        <v>3.3557049999999999</v>
-      </c>
-      <c r="R4">
         <v>0.47799999999999998</v>
       </c>
     </row>
@@ -685,31 +687,31 @@
       <c r="G5">
         <v>1.075758</v>
       </c>
+      <c r="I5">
+        <v>1.67</v>
+      </c>
       <c r="J5">
-        <v>1.67</v>
+        <v>213</v>
       </c>
       <c r="K5">
-        <v>213</v>
+        <v>7.840376</v>
       </c>
       <c r="L5">
-        <v>7.840376</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="N5">
+        <v>1.877934</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="N5">
-        <v>0.41749999999999998</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.877934</v>
       </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
       <c r="Q5">
-        <v>1.877934</v>
-      </c>
-      <c r="R5">
         <v>0.41749999999999998</v>
       </c>
     </row>
@@ -729,35 +731,38 @@
       <c r="G6">
         <v>1.2379709999999999</v>
       </c>
+      <c r="I6">
+        <v>13.88</v>
+      </c>
       <c r="J6">
-        <v>13.88</v>
+        <v>952</v>
       </c>
       <c r="K6">
-        <v>952</v>
+        <v>14.579832</v>
       </c>
       <c r="L6">
-        <v>14.579832</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>0.66095199999999998</v>
       </c>
       <c r="N6">
-        <v>0.66095199999999998</v>
+        <v>2.2058819999999999</v>
       </c>
       <c r="O6">
-        <v>2.2058819999999999</v>
+        <v>26</v>
       </c>
       <c r="P6">
-        <v>26</v>
+        <v>2.7310919999999999</v>
       </c>
       <c r="Q6">
-        <v>2.7310919999999999</v>
+        <v>0.53384600000000004</v>
       </c>
       <c r="R6">
-        <v>0.53384600000000004</v>
+        <v>13</v>
       </c>
       <c r="S6">
-        <v>13</v>
+        <v>1.0676920000000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -776,31 +781,31 @@
       <c r="G7">
         <v>1.1212120000000001</v>
       </c>
+      <c r="I7">
+        <v>4.17</v>
+      </c>
       <c r="J7">
-        <v>4.17</v>
+        <v>296</v>
       </c>
       <c r="K7">
-        <v>296</v>
+        <v>14.087838</v>
       </c>
       <c r="L7">
-        <v>14.087838</v>
+        <v>2</v>
       </c>
       <c r="M7">
+        <v>2.085</v>
+      </c>
+      <c r="N7">
+        <v>0.67567600000000005</v>
+      </c>
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="N7">
-        <v>2.085</v>
-      </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.67567600000000005</v>
       </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
       <c r="Q7">
-        <v>0.67567600000000005</v>
-      </c>
-      <c r="R7">
         <v>2.085</v>
       </c>
     </row>
@@ -820,35 +825,38 @@
       <c r="G8">
         <v>1.0440529999999999</v>
       </c>
+      <c r="I8">
+        <v>2.83</v>
+      </c>
       <c r="J8">
-        <v>2.83</v>
+        <v>237</v>
       </c>
       <c r="K8">
-        <v>237</v>
+        <v>11.940928</v>
       </c>
       <c r="L8">
-        <v>11.940928</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>0.94333299999999998</v>
       </c>
       <c r="N8">
-        <v>0.94333299999999998</v>
+        <v>1.2658229999999999</v>
       </c>
       <c r="O8">
-        <v>1.2658229999999999</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>1.687764</v>
       </c>
       <c r="Q8">
-        <v>1.687764</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="R8">
-        <v>0.70750000000000002</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -867,35 +875,38 @@
       <c r="G9">
         <v>1.1602790000000001</v>
       </c>
+      <c r="I9">
+        <v>10.71</v>
+      </c>
       <c r="J9">
-        <v>10.71</v>
+        <v>999</v>
       </c>
       <c r="K9">
-        <v>999</v>
+        <v>10.720720999999999</v>
       </c>
       <c r="L9">
-        <v>10.720720999999999</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>1.071</v>
       </c>
       <c r="N9">
-        <v>1.071</v>
+        <v>1.001001</v>
       </c>
       <c r="O9">
-        <v>1.001001</v>
+        <v>17</v>
       </c>
       <c r="P9">
-        <v>17</v>
+        <v>1.701702</v>
       </c>
       <c r="Q9">
-        <v>1.701702</v>
+        <v>0.63</v>
       </c>
       <c r="R9">
-        <v>0.63</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -914,13 +925,13 @@
       <c r="G10">
         <v>1.0322579999999999</v>
       </c>
+      <c r="I10">
+        <v>1.21</v>
+      </c>
       <c r="J10">
-        <v>1.21</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>64</v>
-      </c>
-      <c r="L10">
         <v>18.90625</v>
       </c>
     </row>
@@ -940,13 +951,13 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>0.13</v>
+      </c>
       <c r="J11">
-        <v>0.13</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
         <v>21.666667</v>
       </c>
     </row>
@@ -966,13 +977,13 @@
       <c r="G12">
         <v>1.2</v>
       </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
       <c r="J12">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
         <v>8.3333329999999997</v>
       </c>
     </row>
@@ -992,7 +1003,7 @@
       <c r="G13">
         <v>1.25</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <v>5</v>
       </c>
     </row>
@@ -1012,31 +1023,31 @@
       <c r="G14">
         <v>1.074627</v>
       </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
       <c r="J14">
+        <v>72</v>
+      </c>
+      <c r="K14">
+        <v>10.416667</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>0.75</v>
       </c>
-      <c r="K14">
-        <v>72</v>
-      </c>
-      <c r="L14">
-        <v>10.416667</v>
-      </c>
-      <c r="M14">
+      <c r="N14">
+        <v>1.388889</v>
+      </c>
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <v>0.75</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.388889</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
-        <v>1.388889</v>
-      </c>
-      <c r="R14">
         <v>0.75</v>
       </c>
     </row>
@@ -1056,35 +1067,38 @@
       <c r="G15">
         <v>1.04375</v>
       </c>
+      <c r="I15">
+        <v>2.7</v>
+      </c>
       <c r="J15">
+        <v>167</v>
+      </c>
+      <c r="K15">
+        <v>16.167665</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1.35</v>
+      </c>
+      <c r="N15">
+        <v>1.197605</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1.197605</v>
+      </c>
+      <c r="Q15">
+        <v>1.35</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>2.7</v>
-      </c>
-      <c r="K15">
-        <v>167</v>
-      </c>
-      <c r="L15">
-        <v>16.167665</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>1.35</v>
-      </c>
-      <c r="O15">
-        <v>1.197605</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>1.197605</v>
-      </c>
-      <c r="R15">
-        <v>1.35</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1103,13 +1117,13 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>0.08</v>
+      </c>
       <c r="J16">
-        <v>0.08</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
         <v>11.428571</v>
       </c>
     </row>
@@ -1129,13 +1143,13 @@
       <c r="G17">
         <v>1.066667</v>
       </c>
+      <c r="I17">
+        <v>0.12</v>
+      </c>
       <c r="J17">
-        <v>0.12</v>
+        <v>16</v>
       </c>
       <c r="K17">
-        <v>16</v>
-      </c>
-      <c r="L17">
         <v>7.5</v>
       </c>
     </row>
@@ -1155,34 +1169,31 @@
       <c r="G18">
         <v>2.278626</v>
       </c>
-      <c r="I18" t="s">
-        <v>30</v>
+      <c r="I18">
+        <v>13.91</v>
       </c>
       <c r="J18">
-        <v>13.91</v>
+        <v>597</v>
       </c>
       <c r="K18">
-        <v>597</v>
+        <v>23.299833</v>
       </c>
       <c r="L18">
-        <v>23.299833</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>4.6366670000000001</v>
       </c>
       <c r="N18">
-        <v>4.6366670000000001</v>
+        <v>0.50251299999999999</v>
       </c>
       <c r="O18">
-        <v>0.50251299999999999</v>
+        <v>7</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>1.1725289999999999</v>
       </c>
       <c r="Q18">
-        <v>1.1725289999999999</v>
-      </c>
-      <c r="R18">
         <v>1.9871430000000001</v>
       </c>
     </row>
@@ -1202,34 +1213,31 @@
       <c r="G19">
         <v>1.859551</v>
       </c>
-      <c r="I19" t="s">
-        <v>30</v>
+      <c r="I19">
+        <v>5.66</v>
       </c>
       <c r="J19">
-        <v>5.66</v>
+        <v>331</v>
       </c>
       <c r="K19">
-        <v>331</v>
+        <v>17.099698</v>
       </c>
       <c r="L19">
-        <v>17.099698</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>1.8866670000000001</v>
       </c>
       <c r="N19">
-        <v>1.8866670000000001</v>
+        <v>0.90634400000000004</v>
       </c>
       <c r="O19">
-        <v>0.90634400000000004</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>1.812689</v>
       </c>
       <c r="Q19">
-        <v>1.812689</v>
-      </c>
-      <c r="R19">
         <v>0.94333299999999998</v>
       </c>
     </row>
@@ -1249,16 +1257,13 @@
       <c r="G20">
         <v>2.3888889999999998</v>
       </c>
-      <c r="I20" t="s">
-        <v>30</v>
+      <c r="I20">
+        <v>1.32</v>
       </c>
       <c r="J20">
-        <v>1.32</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>43</v>
-      </c>
-      <c r="L20">
         <v>30.697673999999999</v>
       </c>
     </row>
@@ -1278,16 +1283,13 @@
       <c r="G21">
         <v>1.015625</v>
       </c>
-      <c r="I21" t="s">
-        <v>30</v>
+      <c r="I21">
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>1.5</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>65</v>
-      </c>
-      <c r="L21">
         <v>23.076923000000001</v>
       </c>
     </row>
@@ -1307,34 +1309,31 @@
       <c r="G22">
         <v>1.0316460000000001</v>
       </c>
-      <c r="I22" t="s">
-        <v>30</v>
+      <c r="I22">
+        <v>4.04</v>
       </c>
       <c r="J22">
+        <v>163</v>
+      </c>
+      <c r="K22">
+        <v>24.785276</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>4.04</v>
       </c>
-      <c r="K22">
-        <v>163</v>
-      </c>
-      <c r="L22">
-        <v>24.785276</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="N22">
-        <v>4.04</v>
+        <v>0.61349699999999996</v>
       </c>
       <c r="O22">
-        <v>0.61349699999999996</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>1.2269939999999999</v>
       </c>
       <c r="Q22">
-        <v>1.2269939999999999</v>
-      </c>
-      <c r="R22">
         <v>2.02</v>
       </c>
     </row>
@@ -1354,38 +1353,38 @@
       <c r="G23">
         <v>1.0729610000000001</v>
       </c>
-      <c r="I23" t="s">
-        <v>30</v>
+      <c r="I23">
+        <v>4.05</v>
       </c>
       <c r="J23">
-        <v>4.05</v>
+        <v>250</v>
       </c>
       <c r="K23">
-        <v>250</v>
+        <v>16.2</v>
       </c>
       <c r="L23">
-        <v>16.2</v>
+        <v>3</v>
       </c>
       <c r="M23">
+        <v>1.35</v>
+      </c>
+      <c r="N23">
+        <v>1.2</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <v>1.2</v>
+      </c>
+      <c r="Q23">
         <v>1.35</v>
       </c>
-      <c r="O23">
-        <v>1.2</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23">
-        <v>1.2</v>
-      </c>
       <c r="R23">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>2.0249999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1404,16 +1403,13 @@
       <c r="G24">
         <v>2.526316</v>
       </c>
-      <c r="I24" t="s">
-        <v>30</v>
+      <c r="I24">
+        <v>1.55</v>
       </c>
       <c r="J24">
-        <v>1.55</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>48</v>
-      </c>
-      <c r="L24">
         <v>32.291666999999997</v>
       </c>
     </row>
@@ -1433,38 +1429,38 @@
       <c r="G25">
         <v>1.069652</v>
       </c>
-      <c r="I25" t="s">
-        <v>30</v>
+      <c r="I25">
+        <v>19.100000000000001</v>
       </c>
       <c r="J25">
-        <v>19.100000000000001</v>
+        <v>860</v>
       </c>
       <c r="K25">
-        <v>860</v>
+        <v>22.209302000000001</v>
       </c>
       <c r="L25">
-        <v>22.209302000000001</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>1.3642860000000001</v>
       </c>
       <c r="N25">
-        <v>1.3642860000000001</v>
+        <v>1.627907</v>
       </c>
       <c r="O25">
-        <v>1.627907</v>
+        <v>19</v>
       </c>
       <c r="P25">
-        <v>19</v>
+        <v>2.2093020000000001</v>
       </c>
       <c r="Q25">
-        <v>2.2093020000000001</v>
+        <v>1.005263</v>
       </c>
       <c r="R25">
-        <v>1.005263</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1478,40 +1474,43 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>934</v>
+        <v>3177</v>
       </c>
       <c r="G26">
-        <v>1.153105</v>
+        <v>1.0736540000000001</v>
+      </c>
+      <c r="I26">
+        <v>67.239999999999995</v>
       </c>
       <c r="J26">
-        <v>34.06</v>
+        <v>3411</v>
       </c>
       <c r="K26">
-        <v>1077</v>
+        <v>19.712693999999999</v>
       </c>
       <c r="L26">
-        <v>31.624884000000002</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>1.681</v>
       </c>
       <c r="N26">
-        <v>3.4060000000000001</v>
+        <v>1.172677</v>
       </c>
       <c r="O26">
-        <v>0.92850500000000002</v>
+        <v>71</v>
       </c>
       <c r="P26">
-        <v>28</v>
+        <v>2.0815009999999998</v>
       </c>
       <c r="Q26">
-        <v>2.5998139999999998</v>
+        <v>0.94704200000000005</v>
       </c>
       <c r="R26">
-        <v>1.216429</v>
+        <v>23</v>
       </c>
       <c r="S26">
-        <v>9</v>
+        <v>2.9234779999999998</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1524,9 +1523,6 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1538,9 +1534,6 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1552,9 +1545,6 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1566,9 +1556,6 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="I30" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1581,37 +1568,43 @@
         <v>22</v>
       </c>
       <c r="F31">
-        <v>172</v>
+        <v>1632</v>
       </c>
       <c r="G31">
-        <v>1.0523260000000001</v>
+        <v>1.08701</v>
+      </c>
+      <c r="I31">
+        <v>23.03</v>
       </c>
       <c r="J31">
-        <v>2.73</v>
+        <v>1774</v>
       </c>
       <c r="K31">
-        <v>181</v>
+        <v>12.981961999999999</v>
       </c>
       <c r="L31">
-        <v>15.082872999999999</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>1.0966670000000001</v>
       </c>
       <c r="N31">
-        <v>2.73</v>
+        <v>1.1837660000000001</v>
       </c>
       <c r="O31">
-        <v>0.55248600000000003</v>
+        <v>25</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>1.4092450000000001</v>
       </c>
       <c r="Q31">
-        <v>1.657459</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="R31">
-        <v>0.91</v>
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <v>3.29</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1625,40 +1618,43 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>6818</v>
+        <v>8121</v>
       </c>
       <c r="G32">
-        <v>1.1369899999999999</v>
+        <v>1.193695</v>
+      </c>
+      <c r="I32">
+        <v>129.38999999999999</v>
       </c>
       <c r="J32">
-        <v>68.459999999999994</v>
+        <v>9694</v>
       </c>
       <c r="K32">
-        <v>7752</v>
+        <v>13.347431</v>
       </c>
       <c r="L32">
-        <v>8.8312690000000007</v>
+        <v>106</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>1.2206600000000001</v>
       </c>
       <c r="N32">
-        <v>1.069688</v>
+        <v>1.0934600000000001</v>
       </c>
       <c r="O32">
-        <v>0.82559300000000002</v>
+        <v>138</v>
       </c>
       <c r="P32">
-        <v>83</v>
+        <v>1.4235610000000001</v>
       </c>
       <c r="Q32">
-        <v>1.0706910000000001</v>
+        <v>0.93760900000000003</v>
       </c>
       <c r="R32">
-        <v>0.82481899999999997</v>
+        <v>43</v>
       </c>
       <c r="S32">
-        <v>22</v>
+        <v>3.0090699999999999</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -1672,19 +1668,19 @@
         <v>24</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G33">
-        <v>1.0625</v>
+        <v>1.0571429999999999</v>
+      </c>
+      <c r="I33">
+        <v>2.21</v>
       </c>
       <c r="J33">
-        <v>2.2000000000000002</v>
+        <v>37</v>
       </c>
       <c r="K33">
-        <v>34</v>
-      </c>
-      <c r="L33">
-        <v>64.705882000000003</v>
+        <v>59.729730000000004</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -1698,40 +1694,43 @@
         <v>25</v>
       </c>
       <c r="F34">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G34">
-        <v>1.0725549999999999</v>
+        <v>1.0687500000000001</v>
+      </c>
+      <c r="I34">
+        <v>7.86</v>
       </c>
       <c r="J34">
-        <v>7.76</v>
+        <v>342</v>
       </c>
       <c r="K34">
-        <v>340</v>
+        <v>22.982455999999999</v>
       </c>
       <c r="L34">
-        <v>22.823529000000001</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>1.31</v>
       </c>
       <c r="N34">
-        <v>1.2933330000000001</v>
+        <v>1.754386</v>
       </c>
       <c r="O34">
-        <v>1.7647060000000001</v>
+        <v>10</v>
       </c>
       <c r="P34">
-        <v>10</v>
+        <v>2.9239769999999998</v>
       </c>
       <c r="Q34">
-        <v>2.941176</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="R34">
-        <v>0.77600000000000002</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -1750,35 +1749,38 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="I35">
+        <v>0.98</v>
+      </c>
       <c r="J35">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>13.611110999999999</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
         <v>0.98</v>
       </c>
-      <c r="K35">
-        <v>72</v>
-      </c>
-      <c r="L35">
-        <v>13.611110999999999</v>
-      </c>
-      <c r="M35">
+      <c r="N35">
+        <v>1.388889</v>
+      </c>
+      <c r="O35">
         <v>1</v>
       </c>
-      <c r="N35">
+      <c r="P35">
+        <v>1.388889</v>
+      </c>
+      <c r="Q35">
         <v>0.98</v>
       </c>
-      <c r="O35">
-        <v>1.388889</v>
-      </c>
-      <c r="P35">
+      <c r="R35">
         <v>1</v>
       </c>
-      <c r="Q35">
-        <v>1.388889</v>
-      </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.98</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -1797,35 +1799,38 @@
       <c r="G36">
         <v>1.027755</v>
       </c>
+      <c r="I36">
+        <v>13.24</v>
+      </c>
       <c r="J36">
-        <v>13.24</v>
+        <v>1259</v>
       </c>
       <c r="K36">
-        <v>1259</v>
+        <v>10.516283</v>
       </c>
       <c r="L36">
-        <v>10.516283</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>1.2036359999999999</v>
       </c>
       <c r="N36">
-        <v>1.2036359999999999</v>
+        <v>0.87370899999999996</v>
       </c>
       <c r="O36">
-        <v>0.87370899999999996</v>
+        <v>16</v>
       </c>
       <c r="P36">
-        <v>16</v>
+        <v>1.27085</v>
       </c>
       <c r="Q36">
-        <v>1.27085</v>
+        <v>0.82750000000000001</v>
       </c>
       <c r="R36">
-        <v>0.82750000000000001</v>
+        <v>9</v>
       </c>
       <c r="S36">
-        <v>9</v>
+        <v>1.4711110000000001</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -1839,19 +1844,19 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="G37">
-        <v>1.0789470000000001</v>
+        <v>1.058824</v>
+      </c>
+      <c r="I37">
+        <v>3.34</v>
       </c>
       <c r="J37">
-        <v>2.6</v>
+        <v>90</v>
       </c>
       <c r="K37">
-        <v>41</v>
-      </c>
-      <c r="L37">
-        <v>63.414634</v>
+        <v>37.111111000000001</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -1870,35 +1875,38 @@
       <c r="G38">
         <v>1.0195019999999999</v>
       </c>
+      <c r="I38">
+        <v>7.73</v>
+      </c>
       <c r="J38">
-        <v>7.73</v>
+        <v>941</v>
       </c>
       <c r="K38">
-        <v>941</v>
+        <v>8.2146650000000001</v>
       </c>
       <c r="L38">
-        <v>8.2146650000000001</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.576667</v>
       </c>
       <c r="N38">
-        <v>2.576667</v>
+        <v>0.31880999999999998</v>
       </c>
       <c r="O38">
-        <v>0.31880999999999998</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>0.42508000000000001</v>
       </c>
       <c r="Q38">
-        <v>0.42508000000000001</v>
+        <v>1.9325000000000001</v>
       </c>
       <c r="R38">
-        <v>1.9325000000000001</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>3.8650000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -1912,19 +1920,19 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>1.0085470000000001</v>
+      </c>
+      <c r="I39">
+        <v>0.52</v>
       </c>
       <c r="J39">
-        <v>0.01</v>
+        <v>118</v>
       </c>
       <c r="K39">
-        <v>4</v>
-      </c>
-      <c r="L39">
-        <v>2.5</v>
+        <v>4.4067800000000004</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -1938,40 +1946,43 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>1090</v>
+        <v>2058</v>
       </c>
       <c r="G40">
-        <v>1.1211009999999999</v>
+        <v>1.1501459999999999</v>
+      </c>
+      <c r="I40">
+        <v>30.64</v>
       </c>
       <c r="J40">
-        <v>10.73</v>
+        <v>2367</v>
       </c>
       <c r="K40">
-        <v>1222</v>
+        <v>12.944656</v>
       </c>
       <c r="L40">
-        <v>8.7806870000000004</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>1.276667</v>
       </c>
       <c r="N40">
-        <v>1.073</v>
+        <v>1.0139419999999999</v>
       </c>
       <c r="O40">
-        <v>0.81833100000000003</v>
+        <v>31</v>
       </c>
       <c r="P40">
-        <v>15</v>
+        <v>1.3096749999999999</v>
       </c>
       <c r="Q40">
-        <v>1.2274959999999999</v>
+        <v>0.98838700000000002</v>
       </c>
       <c r="R40">
-        <v>0.715333</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>3.4044439999999998</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -1990,36 +2001,37 @@
       <c r="G41">
         <v>1.031579</v>
       </c>
+      <c r="I41">
+        <v>0.18</v>
+      </c>
       <c r="J41">
-        <v>0.18</v>
+        <v>98</v>
       </c>
       <c r="K41">
-        <v>98</v>
+        <v>1.836735</v>
       </c>
       <c r="L41">
-        <v>1.836735</v>
+        <v>2</v>
       </c>
       <c r="M41">
+        <v>0.09</v>
+      </c>
+      <c r="N41">
+        <v>2.040816</v>
+      </c>
+      <c r="O41">
         <v>2</v>
       </c>
-      <c r="N41">
-        <v>0.09</v>
-      </c>
-      <c r="O41">
+      <c r="P41">
         <v>2.040816</v>
       </c>
-      <c r="P41">
-        <v>2</v>
-      </c>
       <c r="Q41">
-        <v>2.040816</v>
-      </c>
-      <c r="R41">
         <v>0.09</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>